--- a/Sonoran-data/data-wrangling-intermediate/01b_edited6_location-independent-manual-fix.xlsx
+++ b/Sonoran-data/data-wrangling-intermediate/01b_edited6_location-independent-manual-fix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eltnmsu-my.sharepoint.com/personal/lossanna_nmsu_edu/Documents/Documents/02_RestoreNet/RestoreNet/Sonoran-data/data-wrangling-intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="189" documentId="13_ncr:40009_{8A6DA30E-687F-47E7-A24D-C265325037DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0C91C608-F7D0-48E1-84F5-83A05B280244}"/>
+  <xr:revisionPtr revIDLastSave="277" documentId="13_ncr:40009_{8A6DA30E-687F-47E7-A24D-C265325037DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3E85D3E-707B-466A-866F-2763D5377A5F}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="1620" windowWidth="20376" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,15 +22,12 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
-    <author>tc={2C2024E7-3B97-4562-AC41-B62DB428A5EB}</author>
-    <author>tc={CF7EECA0-1242-4490-ABC9-6E58E381235F}</author>
     <author>tc={BFC3FD45-334D-46E0-9559-012C02335121}</author>
     <author>tc={9C0BAC8A-A827-4EAA-B847-3F7C2899E2A4}</author>
-    <author>tc={849E5215-2646-4DE8-B699-12C9317B64BF}</author>
     <author>tc={E625EF3B-7C6F-4C78-8D95-22D791DCE7BE}</author>
   </authors>
   <commentList>
-    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{2C2024E7-3B97-4562-AC41-B62DB428A5EB}">
+    <comment ref="B71" authorId="0" shapeId="0" xr:uid="{BFC3FD45-334D-46E0-9559-012C02335121}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -38,15 +35,7 @@
     This is the official USDA Plants code</t>
       </text>
     </comment>
-    <comment ref="C13" authorId="1" shapeId="0" xr:uid="{CF7EECA0-1242-4490-ABC9-6E58E381235F}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Amsinckia intermedia was grouped with A. menziesii</t>
-      </text>
-    </comment>
-    <comment ref="B118" authorId="2" shapeId="0" xr:uid="{BFC3FD45-334D-46E0-9559-012C02335121}">
+    <comment ref="B72" authorId="1" shapeId="0" xr:uid="{9C0BAC8A-A827-4EAA-B847-3F7C2899E2A4}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -54,23 +43,7 @@
     This is the official USDA Plants code</t>
       </text>
     </comment>
-    <comment ref="B119" authorId="3" shapeId="0" xr:uid="{9C0BAC8A-A827-4EAA-B847-3F7C2899E2A4}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This is the official USDA Plants code</t>
-      </text>
-    </comment>
-    <comment ref="B238" authorId="4" shapeId="0" xr:uid="{849E5215-2646-4DE8-B699-12C9317B64BF}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    This is the official USDA Plants code</t>
-      </text>
-    </comment>
-    <comment ref="B245" authorId="5" shapeId="0" xr:uid="{E625EF3B-7C6F-4C78-8D95-22D791DCE7BE}">
+    <comment ref="B145" authorId="2" shapeId="0" xr:uid="{E625EF3B-7C6F-4C78-8D95-22D791DCE7BE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -83,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1494" uniqueCount="508">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="303">
   <si>
     <t>CodeOriginal</t>
   </si>
@@ -115,21 +88,9 @@
     <t>Forb</t>
   </si>
   <si>
-    <t>ACHY</t>
-  </si>
-  <si>
-    <t>Achnatherum hymenoides</t>
-  </si>
-  <si>
     <t>Grass</t>
   </si>
   <si>
-    <t>ACMI2</t>
-  </si>
-  <si>
-    <t>Achillea millefolium</t>
-  </si>
-  <si>
     <t>ACMIS</t>
   </si>
   <si>
@@ -139,24 +100,6 @@
     <t>Unknown</t>
   </si>
   <si>
-    <t>ACNA2</t>
-  </si>
-  <si>
-    <t>Acourtia nana</t>
-  </si>
-  <si>
-    <t>ALIN</t>
-  </si>
-  <si>
-    <t>Allionia incarnata</t>
-  </si>
-  <si>
-    <t>AMCH3</t>
-  </si>
-  <si>
-    <t>Ammocodon chenopodioides</t>
-  </si>
-  <si>
     <t>AMCO3</t>
   </si>
   <si>
@@ -172,12 +115,6 @@
     <t>Shrub</t>
   </si>
   <si>
-    <t>AMDU2</t>
-  </si>
-  <si>
-    <t>Ambrosia dumosa</t>
-  </si>
-  <si>
     <t>AMMEI2</t>
   </si>
   <si>
@@ -199,18 +136,6 @@
     <t>Amsinckia</t>
   </si>
   <si>
-    <t>AMTE3</t>
-  </si>
-  <si>
-    <t>Amsinckia tessellata</t>
-  </si>
-  <si>
-    <t>AMTO3</t>
-  </si>
-  <si>
-    <t>Ambrosia tomentosa</t>
-  </si>
-  <si>
     <t>ANCR2</t>
   </si>
   <si>
@@ -223,12 +148,6 @@
     <t>Aristida adscensionis</t>
   </si>
   <si>
-    <t>ARFR4</t>
-  </si>
-  <si>
-    <t>Artemisia frigida</t>
-  </si>
-  <si>
     <t>ARNE2</t>
   </si>
   <si>
@@ -262,12 +181,6 @@
     <t>Astragalus nuttallianus</t>
   </si>
   <si>
-    <t>ASNU5</t>
-  </si>
-  <si>
-    <t>Astragalus nuttallii</t>
-  </si>
-  <si>
     <t>Introduced</t>
   </si>
   <si>
@@ -277,30 +190,6 @@
     <t>Asclepias tuberosa</t>
   </si>
   <si>
-    <t>ATCA2</t>
-  </si>
-  <si>
-    <t>Atriplex canescens</t>
-  </si>
-  <si>
-    <t>ATCO</t>
-  </si>
-  <si>
-    <t>Atriplex confertifolia</t>
-  </si>
-  <si>
-    <t>AVFA</t>
-  </si>
-  <si>
-    <t>Avena fatua</t>
-  </si>
-  <si>
-    <t>BAAB</t>
-  </si>
-  <si>
-    <t>Bahia absinthifolia</t>
-  </si>
-  <si>
     <t>BAMU</t>
   </si>
   <si>
@@ -319,12 +208,6 @@
     <t>Bouteloua barbata</t>
   </si>
   <si>
-    <t>BOBAB3</t>
-  </si>
-  <si>
-    <t>Bouteloua barbata v. barbata</t>
-  </si>
-  <si>
     <t>BOCO</t>
   </si>
   <si>
@@ -346,18 +229,6 @@
     <t>Bouteloua eriopoda</t>
   </si>
   <si>
-    <t>BOERH2</t>
-  </si>
-  <si>
-    <t>Boerhavia</t>
-  </si>
-  <si>
-    <t>BOGR2</t>
-  </si>
-  <si>
-    <t>Bouteloua gracilis</t>
-  </si>
-  <si>
     <t>BOIN</t>
   </si>
   <si>
@@ -382,72 +253,30 @@
     <t>Bouteloua rothrockii</t>
   </si>
   <si>
-    <t>BOSI2</t>
-  </si>
-  <si>
-    <t>Bouteloua simplex</t>
-  </si>
-  <si>
-    <t>BRDI3</t>
-  </si>
-  <si>
-    <t>Bromus diandrus</t>
-  </si>
-  <si>
-    <t>BRNI</t>
-  </si>
-  <si>
-    <t>Brassica nigra</t>
-  </si>
-  <si>
     <t>BRRU2</t>
   </si>
   <si>
     <t>Bromus rubens</t>
   </si>
   <si>
-    <t>BRTE</t>
-  </si>
-  <si>
-    <t>Bromus tectorum</t>
-  </si>
-  <si>
     <t>CACI2</t>
   </si>
   <si>
     <t>Calandrinia ciliata</t>
   </si>
   <si>
-    <t>CACLL</t>
-  </si>
-  <si>
-    <t>Camissonia claviformis</t>
-  </si>
-  <si>
     <t>CAEXE</t>
   </si>
   <si>
     <t>Castilleja exserta</t>
   </si>
   <si>
-    <t>CANU3</t>
-  </si>
-  <si>
-    <t>Calochortus nuttallii</t>
-  </si>
-  <si>
     <t>CEME2</t>
   </si>
   <si>
     <t>Centaurea melitensis</t>
   </si>
   <si>
-    <t>CETE5</t>
-  </si>
-  <si>
-    <t>Ceratocephala testiculata</t>
-  </si>
-  <si>
     <t>CHAL11</t>
   </si>
   <si>
@@ -460,18 +289,6 @@
     <t>Chorizanthe brevicornu</t>
   </si>
   <si>
-    <t>CHCO2</t>
-  </si>
-  <si>
-    <t>Chamaesaracha coronopus</t>
-  </si>
-  <si>
-    <t>CHER2</t>
-  </si>
-  <si>
-    <t>Chaetopappa ericoides</t>
-  </si>
-  <si>
     <t>CHFR3</t>
   </si>
   <si>
@@ -484,12 +301,6 @@
     <t>Chamaesyce hyssopifolia</t>
   </si>
   <si>
-    <t>CHIN2</t>
-  </si>
-  <si>
-    <t>Chenopodium incanum</t>
-  </si>
-  <si>
     <t>EUPO3</t>
   </si>
   <si>
@@ -499,36 +310,12 @@
     <t>Chamaesyce polycarpa</t>
   </si>
   <si>
-    <t>CHTE2</t>
-  </si>
-  <si>
-    <t>Chorispora tenella</t>
-  </si>
-  <si>
     <t>CHVI4</t>
   </si>
   <si>
     <t>Chloris virgata</t>
   </si>
   <si>
-    <t>CHWA</t>
-  </si>
-  <si>
-    <t>Chenopodium watsonii</t>
-  </si>
-  <si>
-    <t>CLLU2</t>
-  </si>
-  <si>
-    <t>Cleome lutea</t>
-  </si>
-  <si>
-    <t>COAU2</t>
-  </si>
-  <si>
-    <t>Corydalis aurea</t>
-  </si>
-  <si>
     <t>COCA5</t>
   </si>
   <si>
@@ -541,12 +328,6 @@
     <t>Coreopsis califonica</t>
   </si>
   <si>
-    <t>COEQ</t>
-  </si>
-  <si>
-    <t>Convolvulus equitans</t>
-  </si>
-  <si>
     <t>CRAN4</t>
   </si>
   <si>
@@ -565,36 +346,6 @@
     <t>Crassula connata</t>
   </si>
   <si>
-    <t>CRCR3</t>
-  </si>
-  <si>
-    <t>Cryptantha crassisepala</t>
-  </si>
-  <si>
-    <t>CRPO5</t>
-  </si>
-  <si>
-    <t>Croton pottsii</t>
-  </si>
-  <si>
-    <t>CRSE11</t>
-  </si>
-  <si>
-    <t>Croton setigerus</t>
-  </si>
-  <si>
-    <t>CYAC</t>
-  </si>
-  <si>
-    <t>Cymopterus acaulis</t>
-  </si>
-  <si>
-    <t>DACA7</t>
-  </si>
-  <si>
-    <t>Dalea candida</t>
-  </si>
-  <si>
     <t>DAPU3</t>
   </si>
   <si>
@@ -613,12 +364,6 @@
     <t>Descurainia pinnata</t>
   </si>
   <si>
-    <t>DESO2</t>
-  </si>
-  <si>
-    <t>Descurainia sophia</t>
-  </si>
-  <si>
     <t>DICA14</t>
   </si>
   <si>
@@ -631,9 +376,6 @@
     <t>Digitaria californica</t>
   </si>
   <si>
-    <t>DRCU</t>
-  </si>
-  <si>
     <t>Draba cuneifolia</t>
   </si>
   <si>
@@ -652,24 +394,6 @@
     <t>Elymus elymoides</t>
   </si>
   <si>
-    <t>ELTR7</t>
-  </si>
-  <si>
-    <t>Elymus trachycaulus</t>
-  </si>
-  <si>
-    <t>ELWA2</t>
-  </si>
-  <si>
-    <t>Elymus wawawaiensis</t>
-  </si>
-  <si>
-    <t>ENDE</t>
-  </si>
-  <si>
-    <t>Enneapogon desvauxii</t>
-  </si>
-  <si>
     <t>ENFA</t>
   </si>
   <si>
@@ -706,24 +430,12 @@
     <t>Eriastrum eremicum</t>
   </si>
   <si>
-    <t>ERFA2</t>
-  </si>
-  <si>
-    <t>Eriogonum fasciculatum</t>
-  </si>
-  <si>
     <t>ERIAS</t>
   </si>
   <si>
     <t>Eriastrum</t>
   </si>
   <si>
-    <t>ERIN4</t>
-  </si>
-  <si>
-    <t>Eriogonum inflatum</t>
-  </si>
-  <si>
     <t>ERLA12</t>
   </si>
   <si>
@@ -748,24 +460,12 @@
     <t>Eriogonum polycladon</t>
   </si>
   <si>
-    <t>ERRA3</t>
-  </si>
-  <si>
-    <t>Eriogonum racemosum</t>
-  </si>
-  <si>
     <t>ERSU</t>
   </si>
   <si>
     <t>Eragrostis superba</t>
   </si>
   <si>
-    <t>ERTR8</t>
-  </si>
-  <si>
-    <t>Eriogonum trichopes</t>
-  </si>
-  <si>
     <t>ERVE5</t>
   </si>
   <si>
@@ -817,96 +517,24 @@
     <t>Gnaphalium palustre</t>
   </si>
   <si>
-    <t>GUSA2</t>
-  </si>
-  <si>
-    <t>Gutierrezia sarothrae</t>
-  </si>
-  <si>
-    <t>HAGL</t>
-  </si>
-  <si>
-    <t>Halogeton glomeratus</t>
-  </si>
-  <si>
     <t>HAPAA</t>
   </si>
   <si>
     <t>Harpagonella palmeri</t>
   </si>
   <si>
-    <t>HEBO</t>
-  </si>
-  <si>
-    <t>Hedysarum boreale</t>
-  </si>
-  <si>
-    <t>HECI</t>
-  </si>
-  <si>
-    <t>Helianthus ciliaris</t>
-  </si>
-  <si>
-    <t>HECO26</t>
-  </si>
-  <si>
-    <t>Hesperostipa comata</t>
-  </si>
-  <si>
     <t>HEHIC</t>
   </si>
   <si>
     <t>Herniaria hirsuta</t>
   </si>
   <si>
-    <t>HEMU3</t>
-  </si>
-  <si>
-    <t>Heliomeris multiflora</t>
-  </si>
-  <si>
-    <t>HIIN3</t>
-  </si>
-  <si>
-    <t>Hirschfeldia incana</t>
-  </si>
-  <si>
-    <t>HOGL2</t>
-  </si>
-  <si>
-    <t>Hoffmannseggia glauca</t>
-  </si>
-  <si>
-    <t>HOMU</t>
-  </si>
-  <si>
-    <t>Hordeum murinum</t>
-  </si>
-  <si>
-    <t>HOPU</t>
-  </si>
-  <si>
-    <t>Hordeum pusillum</t>
-  </si>
-  <si>
-    <t>IPLO2</t>
-  </si>
-  <si>
-    <t>Ipomopsis longiflora</t>
-  </si>
-  <si>
     <t>KAGR</t>
   </si>
   <si>
     <t>Kallstroemia grandiflora</t>
   </si>
   <si>
-    <t>KAHI</t>
-  </si>
-  <si>
-    <t>Kallstroemia hirsutissima</t>
-  </si>
-  <si>
     <t>KRLA2</t>
   </si>
   <si>
@@ -943,30 +571,12 @@
     <t>Leptosiphon aureus</t>
   </si>
   <si>
-    <t>LECI4</t>
-  </si>
-  <si>
-    <t>Leymus cinereus</t>
-  </si>
-  <si>
-    <t>LEFR2</t>
-  </si>
-  <si>
-    <t>Lepidium fremontii</t>
-  </si>
-  <si>
     <t>LELA</t>
   </si>
   <si>
     <t>Lepidium lasiocarpum</t>
   </si>
   <si>
-    <t>LEPA6</t>
-  </si>
-  <si>
-    <t>Leptochloa panicea</t>
-  </si>
-  <si>
     <t>LETH2</t>
   </si>
   <si>
@@ -979,36 +589,18 @@
     <t>Linanthus bigelovii</t>
   </si>
   <si>
-    <t>LILE3</t>
-  </si>
-  <si>
-    <t>Linum lewisii</t>
-  </si>
-  <si>
     <t>LOAR12</t>
   </si>
   <si>
     <t>Logfia arizonica</t>
   </si>
   <si>
-    <t>LOESE2</t>
-  </si>
-  <si>
-    <t>Loeseliastrum franciscanum</t>
-  </si>
-  <si>
     <t>LOHU2</t>
   </si>
   <si>
     <t>Lotus humistratus</t>
   </si>
   <si>
-    <t>LOSA</t>
-  </si>
-  <si>
-    <t>Lotus salsuginosus</t>
-  </si>
-  <si>
     <t>LOSQ</t>
   </si>
   <si>
@@ -1033,12 +625,6 @@
     <t>Lupinus sparsiflorus</t>
   </si>
   <si>
-    <t>MADI6</t>
-  </si>
-  <si>
-    <t>Matricaria discoidea</t>
-  </si>
-  <si>
     <t>MAGL3</t>
   </si>
   <si>
@@ -1075,30 +661,6 @@
     <t>Melilotus indicus</t>
   </si>
   <si>
-    <t>MEMO4</t>
-  </si>
-  <si>
-    <t>Mentzelia montana</t>
-  </si>
-  <si>
-    <t>MEOF</t>
-  </si>
-  <si>
-    <t>Melilotus officinalis</t>
-  </si>
-  <si>
-    <t>MIGR</t>
-  </si>
-  <si>
-    <t>Microsteris gracilis</t>
-  </si>
-  <si>
-    <t>MILA6</t>
-  </si>
-  <si>
-    <t>Mirabilis laevis</t>
-  </si>
-  <si>
     <t>MOCE</t>
   </si>
   <si>
@@ -1117,18 +679,6 @@
     <t>Mollugo verticillata</t>
   </si>
   <si>
-    <t>MUPO2</t>
-  </si>
-  <si>
-    <t>Muhlenbergia porteri</t>
-  </si>
-  <si>
-    <t>NAHI</t>
-  </si>
-  <si>
-    <t>Nama hispidum</t>
-  </si>
-  <si>
     <t>ONPI</t>
   </si>
   <si>
@@ -1141,24 +691,12 @@
     <t>Panicum capillare</t>
   </si>
   <si>
-    <t>PAHI5</t>
-  </si>
-  <si>
-    <t>Panicum hirticaule</t>
-  </si>
-  <si>
     <t>PAMI5</t>
   </si>
   <si>
     <t>Parkinsonia microphylla</t>
   </si>
   <si>
-    <t>PASM</t>
-  </si>
-  <si>
-    <t>Pascopyrum smithii</t>
-  </si>
-  <si>
     <t>PECTO</t>
   </si>
   <si>
@@ -1171,18 +709,6 @@
     <t>Pectocarya heterocarpa</t>
   </si>
   <si>
-    <t>PEPA2</t>
-  </si>
-  <si>
-    <t>Pectis papposa</t>
-  </si>
-  <si>
-    <t>PEPA8</t>
-  </si>
-  <si>
-    <t>Penstemon palmeri</t>
-  </si>
-  <si>
     <t>PEPL</t>
   </si>
   <si>
@@ -1201,12 +727,6 @@
     <t>Phacelia distans</t>
   </si>
   <si>
-    <t>PHLO2</t>
-  </si>
-  <si>
-    <t>Phlox longifolia</t>
-  </si>
-  <si>
     <t>PHYSA</t>
   </si>
   <si>
@@ -1225,18 +745,6 @@
     <t>Plagiobothrys arizonicus</t>
   </si>
   <si>
-    <t>PLJA</t>
-  </si>
-  <si>
-    <t>Pleuraphis jamesii</t>
-  </si>
-  <si>
-    <t>PLMU3</t>
-  </si>
-  <si>
-    <t>Pleuraphis mutica</t>
-  </si>
-  <si>
     <t>PLOV</t>
   </si>
   <si>
@@ -1267,12 +775,6 @@
     <t>Portulaca oleracea</t>
   </si>
   <si>
-    <t>POPI3</t>
-  </si>
-  <si>
-    <t>Portulaca pilosa</t>
-  </si>
-  <si>
     <t>POSE</t>
   </si>
   <si>
@@ -1285,12 +787,6 @@
     <t>Portulaca umbraticola</t>
   </si>
   <si>
-    <t>PRGL2</t>
-  </si>
-  <si>
-    <t>Prosopis glandulosa</t>
-  </si>
-  <si>
     <t>PRVE</t>
   </si>
   <si>
@@ -1303,30 +799,12 @@
     <t>Pseudognaphalium canescens</t>
   </si>
   <si>
-    <t>PSSP6</t>
-  </si>
-  <si>
-    <t>Pseudoroegneria spicata</t>
-  </si>
-  <si>
-    <t>SAAB</t>
-  </si>
-  <si>
-    <t>Sanvitalia abertii</t>
-  </si>
-  <si>
     <t>SACO6</t>
   </si>
   <si>
     <t>Salvia columbariae</t>
   </si>
   <si>
-    <t>SARE3</t>
-  </si>
-  <si>
-    <t>Salvia reflexa</t>
-  </si>
-  <si>
     <t>SATR12</t>
   </si>
   <si>
@@ -1339,24 +817,12 @@
     <t>Schismus barbatus</t>
   </si>
   <si>
-    <t>SCMU6</t>
-  </si>
-  <si>
-    <t>Schkuhria multiflora</t>
-  </si>
-  <si>
     <t>SCPI3</t>
   </si>
   <si>
     <t>Schkuhria pinnata</t>
   </si>
   <si>
-    <t>SEBA3</t>
-  </si>
-  <si>
-    <t>Senna bauhinioides</t>
-  </si>
-  <si>
     <t>SECO10</t>
   </si>
   <si>
@@ -1369,12 +835,6 @@
     <t>Sida abutifolia</t>
   </si>
   <si>
-    <t>SIAL2</t>
-  </si>
-  <si>
-    <t>Sisymbrium altissimum</t>
-  </si>
-  <si>
     <t>SIAN2</t>
   </si>
   <si>
@@ -1393,12 +853,6 @@
     <t>Sida neomexicana</t>
   </si>
   <si>
-    <t>SOEL</t>
-  </si>
-  <si>
-    <t>Solanum elaeagnifolium</t>
-  </si>
-  <si>
     <t>SOOL</t>
   </si>
   <si>
@@ -1411,27 +865,12 @@
     <t>Solanum rostratum</t>
   </si>
   <si>
-    <t>SPAI</t>
-  </si>
-  <si>
-    <t>Sporobolus airoides</t>
-  </si>
-  <si>
     <t>SPAMA</t>
   </si>
   <si>
-    <t>SPAM2</t>
-  </si>
-  <si>
     <t>Sphaeralcea ambigua</t>
   </si>
   <si>
-    <t>SPCO</t>
-  </si>
-  <si>
-    <t>Sphaeralcea coccinea</t>
-  </si>
-  <si>
     <t>SPCR</t>
   </si>
   <si>
@@ -1444,36 +883,12 @@
     <t>Spermolepis echinata</t>
   </si>
   <si>
-    <t>SPGR2</t>
-  </si>
-  <si>
-    <t>Sphaeralcea grossulariifolia</t>
-  </si>
-  <si>
     <t>STGN</t>
   </si>
   <si>
     <t>Stylocline gnaphalioides</t>
   </si>
   <si>
-    <t>TAPO5</t>
-  </si>
-  <si>
-    <t>Talinum polygaloides</t>
-  </si>
-  <si>
-    <t>TILA2</t>
-  </si>
-  <si>
-    <t>Tidestromia lanuginosa</t>
-  </si>
-  <si>
-    <t>TOIN</t>
-  </si>
-  <si>
-    <t>Townsendia incana</t>
-  </si>
-  <si>
     <t>TRMU</t>
   </si>
   <si>
@@ -1498,12 +913,6 @@
     <t>Microseris lindleyi</t>
   </si>
   <si>
-    <t>VEEN</t>
-  </si>
-  <si>
-    <t>Verbesina encelioides</t>
-  </si>
-  <si>
     <t>VEPEX2</t>
   </si>
   <si>
@@ -1516,18 +925,6 @@
     <t>Vulpia octoflora</t>
   </si>
   <si>
-    <t>YUEL</t>
-  </si>
-  <si>
-    <t>Yucca elata</t>
-  </si>
-  <si>
-    <t>ZIGR</t>
-  </si>
-  <si>
-    <t>Zinnia grandiflora</t>
-  </si>
-  <si>
     <t>CHAB2</t>
   </si>
   <si>
@@ -1537,69 +934,24 @@
     <t>MILI5</t>
   </si>
   <si>
-    <t>SIAL</t>
-  </si>
-  <si>
-    <t>Draba cuneifolia var. integrifolia</t>
-  </si>
-  <si>
-    <t>AMIN3</t>
-  </si>
-  <si>
     <t>ANOC2</t>
   </si>
   <si>
     <t>Androsace occidentalis</t>
   </si>
   <si>
-    <t>CRIN8</t>
-  </si>
-  <si>
-    <t>Cryptantha intermedia</t>
-  </si>
-  <si>
-    <t>LAOC3</t>
-  </si>
-  <si>
-    <t>Lappula occidentalis</t>
-  </si>
-  <si>
     <t>LOGR4</t>
   </si>
   <si>
     <t>Lotus greenei</t>
   </si>
   <si>
-    <t>MAAF</t>
-  </si>
-  <si>
-    <t>Malcolmia africana</t>
-  </si>
-  <si>
-    <t>PEPE26</t>
-  </si>
-  <si>
-    <t>Pectocarya penicillata</t>
-  </si>
-  <si>
     <t>STMI2</t>
   </si>
   <si>
     <t>Stylocline micropoides</t>
   </si>
   <si>
-    <t>STSP3</t>
-  </si>
-  <si>
-    <t>Stipa speciosa</t>
-  </si>
-  <si>
-    <t>ACSP12</t>
-  </si>
-  <si>
-    <t>Native/Unknown</t>
-  </si>
-  <si>
     <t>ERCI</t>
   </si>
   <si>
@@ -1607,6 +959,12 @@
   </si>
   <si>
     <t>Eschscholzia californica ssp. mexicana</t>
+  </si>
+  <si>
+    <t>ERCU2/ERLE</t>
+  </si>
+  <si>
+    <t>Eragrostis curvula or lehmanniana</t>
   </si>
 </sst>
 </file>
@@ -2175,15 +1533,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>45720</xdr:colOff>
+      <xdr:colOff>68580</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>245745</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>32385</xdr:rowOff>
+      <xdr:colOff>268605</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -2198,8 +1556,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9349740" y="419100"/>
-          <a:ext cx="3248025" cy="710565"/>
+          <a:off x="6987540" y="281940"/>
+          <a:ext cx="3248025" cy="527685"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2550,22 +1908,13 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B13" dT="2023-09-11T22:15:26.86" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{2C2024E7-3B97-4562-AC41-B62DB428A5EB}">
+  <threadedComment ref="B71" dT="2023-09-11T22:15:26.86" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{BFC3FD45-334D-46E0-9559-012C02335121}">
     <text>This is the official USDA Plants code</text>
   </threadedComment>
-  <threadedComment ref="C13" dT="2023-09-19T19:42:29.93" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{CF7EECA0-1242-4490-ABC9-6E58E381235F}">
-    <text>Amsinckia intermedia was grouped with A. menziesii</text>
-  </threadedComment>
-  <threadedComment ref="B118" dT="2023-09-11T22:15:26.86" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{BFC3FD45-334D-46E0-9559-012C02335121}">
+  <threadedComment ref="B72" dT="2023-09-11T22:15:59.13" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{9C0BAC8A-A827-4EAA-B847-3F7C2899E2A4}">
     <text>This is the official USDA Plants code</text>
   </threadedComment>
-  <threadedComment ref="B119" dT="2023-09-11T22:15:59.13" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{9C0BAC8A-A827-4EAA-B847-3F7C2899E2A4}">
-    <text>This is the official USDA Plants code</text>
-  </threadedComment>
-  <threadedComment ref="B238" dT="2023-09-19T19:44:16.40" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{849E5215-2646-4DE8-B699-12C9317B64BF}">
-    <text>This is the official USDA Plants code</text>
-  </threadedComment>
-  <threadedComment ref="B245" dT="2023-09-11T22:17:46.96" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{E625EF3B-7C6F-4C78-8D95-22D791DCE7BE}">
+  <threadedComment ref="B145" dT="2023-09-11T22:17:46.96" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{E625EF3B-7C6F-4C78-8D95-22D791DCE7BE}">
     <text>This is the official USDA Plants code</text>
   </threadedComment>
 </ThreadedComments>
@@ -2573,11 +1922,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F250"/>
+  <dimension ref="A1:F147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M17" sqref="M17"/>
+      <selection pane="bottomLeft" activeCell="C136" sqref="C136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2653,36 +2002,36 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>504</v>
+        <v>3</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>8</v>
@@ -2693,39 +2042,39 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>9</v>
@@ -2733,19 +2082,19 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>9</v>
@@ -2753,19 +2102,19 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>9</v>
@@ -2773,19 +2122,19 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>9</v>
@@ -2793,59 +2142,59 @@
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>26</v>
+        <v>292</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>292</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>27</v>
+        <v>293</v>
       </c>
       <c r="D11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="D12" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>486</v>
-      </c>
-      <c r="B13" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="D13" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>9</v>
@@ -2853,22 +2202,22 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -2876,56 +2225,56 @@
         <v>34</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>37</v>
-      </c>
       <c r="D16" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>39</v>
-      </c>
       <c r="D17" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>9</v>
@@ -2933,19 +2282,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>41</v>
-      </c>
       <c r="D18" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>9</v>
@@ -2965,7 +2314,7 @@
         <v>3</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>9</v>
@@ -2973,19 +2322,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>487</v>
+        <v>44</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>487</v>
+        <v>44</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>488</v>
+        <v>45</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F20" s="1" t="s">
         <v>9</v>
@@ -2993,59 +2342,59 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="D23" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>9</v>
@@ -3053,13 +2402,13 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D24" s="1" t="s">
         <v>3</v>
@@ -3068,18 +2417,18 @@
         <v>8</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>3</v>
@@ -3088,18 +2437,18 @@
         <v>8</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>3</v>
@@ -3108,24 +2457,24 @@
         <v>8</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>9</v>
@@ -3133,19 +2482,19 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>9</v>
@@ -3153,33 +2502,33 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>8</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>3</v>
@@ -3188,84 +2537,84 @@
         <v>8</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D32" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>9</v>
@@ -3273,19 +2622,19 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>9</v>
@@ -3293,79 +2642,79 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D36" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D39" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>9</v>
@@ -3373,79 +2722,79 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D41" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="D42" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D43" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>9</v>
@@ -3453,39 +2802,39 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="D44" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F45" s="1" t="s">
         <v>9</v>
@@ -3493,19 +2842,19 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>9</v>
@@ -3513,13 +2862,13 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D47" s="1" t="s">
         <v>3</v>
@@ -3528,84 +2877,84 @@
         <v>8</v>
       </c>
       <c r="F47" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D48" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D49" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
+      </c>
+      <c r="C51" t="s">
+        <v>106</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F51" s="1" t="s">
         <v>9</v>
@@ -3613,79 +2962,79 @@
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F53" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="D54" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="D55" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>9</v>
@@ -3693,39 +3042,39 @@
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>113</v>
+        <v>298</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>113</v>
+        <v>298</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>114</v>
+        <v>299</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>9</v>
@@ -3733,59 +3082,59 @@
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>119</v>
+        <v>301</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>119</v>
+        <v>301</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>120</v>
+        <v>302</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C60" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="B60" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="C60" s="1" t="s">
-        <v>122</v>
-      </c>
       <c r="D60" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>9</v>
@@ -3793,19 +3142,19 @@
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C61" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="B61" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C61" s="1" t="s">
-        <v>124</v>
-      </c>
       <c r="D61" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F61" s="1" t="s">
         <v>9</v>
@@ -3813,19 +3162,19 @@
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C62" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C62" s="1" t="s">
-        <v>126</v>
-      </c>
       <c r="D62" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F62" s="1" t="s">
         <v>9</v>
@@ -3833,13 +3182,13 @@
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C63" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="B63" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C63" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="D63" s="1" t="s">
         <v>3</v>
@@ -3848,44 +3197,44 @@
         <v>8</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="B64" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="C64" s="1" t="s">
-        <v>130</v>
-      </c>
       <c r="D64" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C65" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="D65" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F65" s="1" t="s">
         <v>9</v>
@@ -3893,19 +3242,19 @@
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C66" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C66" s="1" t="s">
-        <v>134</v>
-      </c>
       <c r="D66" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F66" s="1" t="s">
         <v>9</v>
@@ -3913,39 +3262,39 @@
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F68" s="1" t="s">
         <v>9</v>
@@ -3953,39 +3302,39 @@
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D69" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>143</v>
+        <v>300</v>
       </c>
       <c r="D70" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F70" s="1" t="s">
         <v>9</v>
@@ -3993,19 +3342,19 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="B71" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>289</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D71" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F71" s="1" t="s">
         <v>9</v>
@@ -4013,19 +3362,19 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>290</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D72" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F72" s="1" t="s">
         <v>9</v>
@@ -4033,19 +3382,19 @@
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
-        <v>148</v>
+        <v>81</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>149</v>
+        <v>83</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>9</v>
@@ -4053,19 +3402,19 @@
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>9</v>
@@ -4073,19 +3422,19 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D75" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>9</v>
@@ -4093,19 +3442,19 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="D76" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F76" s="1" t="s">
         <v>9</v>
@@ -4113,19 +3462,19 @@
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D77" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>9</v>
@@ -4133,19 +3482,19 @@
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D78" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F78" s="1" t="s">
         <v>9</v>
@@ -4153,19 +3502,19 @@
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>9</v>
@@ -4173,19 +3522,19 @@
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
-        <v>489</v>
+        <v>157</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>489</v>
+        <v>157</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>490</v>
+        <v>158</v>
       </c>
       <c r="D80" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F80" s="1" t="s">
         <v>9</v>
@@ -4193,13 +3542,13 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D81" s="1" t="s">
         <v>3</v>
@@ -4208,24 +3557,24 @@
         <v>8</v>
       </c>
       <c r="F81" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D82" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>9</v>
@@ -4233,19 +3582,19 @@
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="D83" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>9</v>
@@ -4253,19 +3602,19 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D84" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>9</v>
@@ -4273,59 +3622,59 @@
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D85" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D86" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D87" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F87" s="1" t="s">
         <v>9</v>
@@ -4333,19 +3682,19 @@
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F88" s="1" t="s">
         <v>9</v>
@@ -4353,19 +3702,19 @@
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D89" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F89" s="1" t="s">
         <v>9</v>
@@ -4373,39 +3722,39 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D90" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
-        <v>182</v>
+        <v>294</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>182</v>
+        <v>294</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>183</v>
+        <v>295</v>
       </c>
       <c r="D91" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F91" s="1" t="s">
         <v>9</v>
@@ -4413,19 +3762,19 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>485</v>
+        <v>180</v>
       </c>
       <c r="D92" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F92" s="1" t="s">
         <v>9</v>
@@ -4433,19 +3782,19 @@
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F93" s="1" t="s">
         <v>9</v>
@@ -4453,119 +3802,119 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D94" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F94" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D95" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F95" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D96" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F96" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="D97" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F97" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D98" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F98" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>9</v>
@@ -4573,39 +3922,39 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
-        <v>505</v>
+        <v>195</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>505</v>
+        <v>195</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>506</v>
+        <v>196</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F101" s="1" t="s">
         <v>9</v>
@@ -4613,39 +3962,39 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F102" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>9</v>
@@ -4653,19 +4002,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D104" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>9</v>
@@ -4673,19 +4022,19 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D105" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F105" s="1" t="s">
         <v>9</v>
@@ -4693,19 +4042,19 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F106" s="1" t="s">
         <v>9</v>
@@ -4713,33 +4062,33 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D107" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D108" s="1" t="s">
         <v>3</v>
@@ -4748,44 +4097,44 @@
         <v>8</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D110" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E110" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F110" s="1" t="s">
         <v>9</v>
@@ -4793,19 +4142,19 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D111" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F111" s="1" t="s">
         <v>9</v>
@@ -4813,19 +4162,19 @@
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D112" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F112" s="1" t="s">
         <v>9</v>
@@ -4833,39 +4182,39 @@
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F114" s="1" t="s">
         <v>9</v>
@@ -4873,19 +4222,19 @@
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>61</v>
+        <v>13</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F115" s="1" t="s">
         <v>9</v>
@@ -4893,19 +4242,19 @@
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D116" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F116" s="1" t="s">
         <v>9</v>
@@ -4913,19 +4262,19 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>507</v>
+        <v>230</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F117" s="1" t="s">
         <v>9</v>
@@ -4933,19 +4282,19 @@
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="C118" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>481</v>
-      </c>
-      <c r="C118" s="1" t="s">
-        <v>233</v>
-      </c>
       <c r="D118" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F118" s="1" t="s">
         <v>9</v>
@@ -4953,19 +4302,19 @@
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="C119" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="C119" s="1" t="s">
-        <v>235</v>
-      </c>
       <c r="D119" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F119" s="1" t="s">
         <v>9</v>
@@ -4973,39 +4322,39 @@
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="1" t="s">
-        <v>135</v>
+        <v>235</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>136</v>
+        <v>235</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>137</v>
+        <v>236</v>
       </c>
       <c r="D120" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F120" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F121" s="1" t="s">
         <v>9</v>
@@ -5013,39 +4362,39 @@
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D122" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F122" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D123" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F123" s="1" t="s">
         <v>9</v>
@@ -5053,59 +4402,59 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D124" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F124" s="1" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D125" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="F125" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>61</v>
+        <v>3</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F126" s="1" t="s">
         <v>9</v>
@@ -5113,19 +4462,19 @@
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F127" s="1" t="s">
         <v>9</v>
@@ -5133,39 +4482,39 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F128" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F129" s="1" t="s">
         <v>9</v>
@@ -5173,13 +4522,13 @@
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="D130" s="1" t="s">
         <v>3</v>
@@ -5188,24 +4537,24 @@
         <v>8</v>
       </c>
       <c r="F130" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="F131" s="1" t="s">
         <v>9</v>
@@ -5213,19 +4562,19 @@
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F132" s="1" t="s">
         <v>9</v>
@@ -5233,19 +4582,19 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F133" s="1" t="s">
         <v>9</v>
@@ -5253,13 +4602,13 @@
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D134" s="1" t="s">
         <v>3</v>
@@ -5273,59 +4622,59 @@
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F135" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="D136" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F136" s="1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="D137" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F137" s="1" t="s">
         <v>9</v>
@@ -5333,39 +4682,39 @@
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D138" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F138" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="D139" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F139" s="1" t="s">
         <v>9</v>
@@ -5373,39 +4722,39 @@
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D140" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F140" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="D141" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F141" s="1" t="s">
         <v>9</v>
@@ -5413,39 +4762,39 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C142" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="B142" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="C142" s="1" t="s">
-        <v>279</v>
-      </c>
       <c r="D142" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F142" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C143" s="1" t="s">
         <v>280</v>
       </c>
-      <c r="B143" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="C143" s="1" t="s">
-        <v>281</v>
-      </c>
       <c r="D143" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="F143" s="1" t="s">
         <v>9</v>
@@ -5453,19 +4802,19 @@
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
-        <v>491</v>
+        <v>281</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>491</v>
+        <v>281</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>492</v>
+        <v>282</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F144" s="1" t="s">
         <v>9</v>
@@ -5473,39 +4822,39 @@
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>282</v>
+        <v>283</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>291</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D145" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F145" s="1" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="D146" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="F146" s="1" t="s">
         <v>9</v>
@@ -5513,2082 +4862,22 @@
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="D147" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F147" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>289</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E148" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F148" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>290</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E149" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F149" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>292</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E150" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F150" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A151" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>294</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E151" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F151" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F152" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D153" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F153" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A154" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="C154" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="D154" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E154" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F154" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="C155" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F155" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C156" s="1" t="s">
-        <v>494</v>
-      </c>
-      <c r="D156" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F156" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A157" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E157" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F157" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>307</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E158" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F158" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F159" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A160" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E160" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F160" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A161" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="B161" s="1" t="s">
-        <v>312</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>313</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E161" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F161" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A162" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D162" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F162" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>495</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="D163" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E163" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F163" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="C164" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E164" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F164" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A165" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="C165" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D165" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E165" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F165" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A166" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="C166" s="1" t="s">
-        <v>321</v>
-      </c>
-      <c r="D166" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E166" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F166" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A167" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="B167" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="C167" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="D167" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E167" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F167" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="B168" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="C168" s="1" t="s">
-        <v>325</v>
-      </c>
-      <c r="D168" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E168" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F168" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="B169" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="C169" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D169" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E169" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F169" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="C170" s="1" t="s">
-        <v>329</v>
-      </c>
-      <c r="D170" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E170" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F170" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A171" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C171" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D171" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E171" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A172" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="B172" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="C172" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E172" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F172" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A173" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B173" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C173" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="D173" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F173" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C174" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F174" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A175" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B175" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="C175" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E175" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F175" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A176" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B176" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="C176" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="D176" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E176" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F176" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B177" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C177" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F177" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A178" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E178" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F178" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A179" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="C179" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="D179" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E179" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F179" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C180" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="D180" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E180" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F180" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A181" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E181" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F181" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="B182" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="C182" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="D182" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E182" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F182" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A183" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B183" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="C183" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="D183" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E183" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F183" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="B184" s="1" t="s">
-        <v>356</v>
-      </c>
-      <c r="C184" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E184" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F184" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B185" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="C185" s="1" t="s">
-        <v>359</v>
-      </c>
-      <c r="D185" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E185" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F185" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="C186" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D186" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E186" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F186" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="B187" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F187" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B188" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E188" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F188" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="B189" s="1" t="s">
-        <v>497</v>
-      </c>
-      <c r="C189" s="1" t="s">
-        <v>498</v>
-      </c>
-      <c r="D189" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E189" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F189" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A190" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B190" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="C190" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D190" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E190" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F190" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="B191" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="C191" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="D191" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E191" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F191" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B192" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C192" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D192" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E192" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F192" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A193" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="B193" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="C193" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D193" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E193" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F193" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C194" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D194" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E194" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F194" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A195" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B195" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C195" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E195" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F195" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A196" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B196" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C196" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E196" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F196" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A197" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B197" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C197" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D197" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E197" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F197" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A198" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B198" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F198" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B199" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="D199" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E199" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F199" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A200" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="B200" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D200" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E200" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F200" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A201" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="B201" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="C201" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E201" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F201" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A202" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="B202" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D202" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E202" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F202" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B203" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="D203" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E203" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F203" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B204" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="D204" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E204" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F204" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A205" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B205" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D205" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E205" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F205" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A206" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="B206" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="D206" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E206" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F206" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A207" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B207" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="D207" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E207" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F207" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A208" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B208" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="D208" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E208" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F208" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B209" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="D209" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E209" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F209" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A210" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B210" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="D210" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E210" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F210" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A211" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="B211" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="D211" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E211" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F211" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A212" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="B212" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="D212" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E212" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F212" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A213" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B213" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="D213" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E213" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F213" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A214" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B214" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="D214" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E214" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F214" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="B215" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="D215" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E215" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F215" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B216" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="D216" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E216" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F216" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A217" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="B217" s="1" t="s">
-        <v>420</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="D217" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="E217" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F217" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A218" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B218" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="D218" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E218" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F218" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A219" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B219" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="D219" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E219" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F219" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A220" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="D220" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E220" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F220" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A221" s="1" t="s">
-        <v>484</v>
-      </c>
-      <c r="B221" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F221" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A222" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="B222" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C222" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E222" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F222" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A223" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="B223" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="D223" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E223" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F223" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A224" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B224" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E224" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F224" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A225" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="B225" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="D225" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E225" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F225" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A226" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B226" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C226" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E226" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F226" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A227" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B227" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>439</v>
-      </c>
-      <c r="D227" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E227" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F227" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A228" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B228" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>441</v>
-      </c>
-      <c r="D228" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E228" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F228" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A229" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B229" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E229" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F229" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A230" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="B230" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C230" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E230" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F230" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A231" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B231" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="D231" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E231" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F231" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A232" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B232" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>448</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E232" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F232" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A233" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B233" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>450</v>
-      </c>
-      <c r="D233" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E233" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F233" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A234" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="B234" s="1" t="s">
-        <v>451</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>452</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E234" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F234" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A235" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="B235" s="1" t="s">
-        <v>453</v>
-      </c>
-      <c r="C235" s="1" t="s">
-        <v>454</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E235" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F235" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A236" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="B236" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>456</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E236" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F236" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A237" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="B237" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>500</v>
-      </c>
-      <c r="D237" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E237" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F237" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A238" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="B238" s="2" t="s">
-        <v>503</v>
-      </c>
-      <c r="C238" s="1" t="s">
-        <v>502</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E238" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F238" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A239" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="B239" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>458</v>
-      </c>
-      <c r="D239" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E239" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F239" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A240" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="B240" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="D240" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E240" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F240" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A241" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="B241" s="1" t="s">
-        <v>461</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>462</v>
-      </c>
-      <c r="D241" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E241" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F241" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A242" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="B242" s="1" t="s">
-        <v>463</v>
-      </c>
-      <c r="C242" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E242" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F242" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A243" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="B243" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="D243" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E243" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F243" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A244" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F244" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A245" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="B245" s="2" t="s">
-        <v>483</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>470</v>
-      </c>
-      <c r="D245" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E245" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F245" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A246" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="B246" s="1" t="s">
-        <v>471</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>472</v>
-      </c>
-      <c r="D246" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E246" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F246" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A247" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="B247" s="1" t="s">
-        <v>473</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="D247" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E247" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F247" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A248" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="B248" s="1" t="s">
-        <v>475</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="D248" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E248" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F248" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A249" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="B249" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="C249" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E249" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F249" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A250" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B250" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E250" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="F250" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Sonoran-data/data-wrangling-intermediate/01b_edited6_location-independent-manual-fix.xlsx
+++ b/Sonoran-data/data-wrangling-intermediate/01b_edited6_location-independent-manual-fix.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://eltnmsu-my.sharepoint.com/personal/lossanna_nmsu_edu/Documents/Documents/02_RestoreNet/RestoreNet/Sonoran-data/data-wrangling-intermediate/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="277" documentId="13_ncr:40009_{8A6DA30E-687F-47E7-A24D-C265325037DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3E85D3E-707B-466A-866F-2763D5377A5F}"/>
+  <xr:revisionPtr revIDLastSave="280" documentId="13_ncr:40009_{8A6DA30E-687F-47E7-A24D-C265325037DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B7AA000D-C579-45B8-9AA1-CB0FFEC88E92}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="1620" windowWidth="20376" windowHeight="12096" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,7 @@
   <authors>
     <author>tc={BFC3FD45-334D-46E0-9559-012C02335121}</author>
     <author>tc={9C0BAC8A-A827-4EAA-B847-3F7C2899E2A4}</author>
+    <author>tc={9170C499-DD8A-4163-96C6-10F0781B22AB}</author>
     <author>tc={E625EF3B-7C6F-4C78-8D95-22D791DCE7BE}</author>
   </authors>
   <commentList>
@@ -43,7 +44,15 @@
     This is the official USDA Plants code</t>
       </text>
     </comment>
-    <comment ref="B145" authorId="2" shapeId="0" xr:uid="{E625EF3B-7C6F-4C78-8D95-22D791DCE7BE}">
+    <comment ref="B137" authorId="2" shapeId="0" xr:uid="{9170C499-DD8A-4163-96C6-10F0781B22AB}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Change so it matches codes in seed mix</t>
+      </text>
+    </comment>
+    <comment ref="B145" authorId="3" shapeId="0" xr:uid="{E625EF3B-7C6F-4C78-8D95-22D791DCE7BE}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -56,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="304">
   <si>
     <t>CodeOriginal</t>
   </si>
@@ -965,13 +974,16 @@
   </si>
   <si>
     <t>Eragrostis curvula or lehmanniana</t>
+  </si>
+  <si>
+    <t>SPAM2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1117,6 +1129,12 @@
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="34">
@@ -1607,6 +1625,7 @@
 
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Lia Ossanna" id="{B6FF104B-9E4A-4529-B4A6-6B992DB24262}" userId="S::lossanna@nmsu.edu::46d24f92-a3d9-425c-98e5-f4d1ec18a5c1" providerId="AD"/>
   <person displayName="Ossanna, Lia Qin Ryan - (lossanna)" id="{F2C253AE-3829-426F-8607-10F478AAC97A}" userId="S::lossanna@arizona.edu::4ef914cd-790d-460d-a4af-cca4fc5cf0d2" providerId="AD"/>
 </personList>
 </file>
@@ -1914,6 +1933,9 @@
   <threadedComment ref="B72" dT="2023-09-11T22:15:59.13" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{9C0BAC8A-A827-4EAA-B847-3F7C2899E2A4}">
     <text>This is the official USDA Plants code</text>
   </threadedComment>
+  <threadedComment ref="B137" dT="2025-10-10T17:46:05.22" personId="{B6FF104B-9E4A-4529-B4A6-6B992DB24262}" id="{9170C499-DD8A-4163-96C6-10F0781B22AB}">
+    <text>Change so it matches codes in seed mix</text>
+  </threadedComment>
   <threadedComment ref="B145" dT="2023-09-11T22:17:46.96" personId="{F2C253AE-3829-426F-8607-10F478AAC97A}" id="{E625EF3B-7C6F-4C78-8D95-22D791DCE7BE}">
     <text>This is the official USDA Plants code</text>
   </threadedComment>
@@ -1925,8 +1947,8 @@
   <dimension ref="A1:F147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C136" sqref="C136"/>
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G136" sqref="G136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4664,8 +4686,8 @@
       <c r="A137" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>269</v>
+      <c r="B137" s="2" t="s">
+        <v>303</v>
       </c>
       <c r="C137" s="1" t="s">
         <v>270</v>
